--- a/StructureDefinition-profile-Subscription.xlsx
+++ b/StructureDefinition-profile-Subscription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="287">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7986935-06:00</t>
+    <t>2026-02-09T22:05:43.3430726-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -414,33 +414,214 @@
     <t>Subscription.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Subscription.extension:name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.name|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Subscription.name from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A natural language name identifying the subscription.</t>
+  </si>
+  <si>
+    <t>Element `Subscription.name` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Subscription.extension:filterBy</t>
+  </si>
+  <si>
+    <t>filterBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.filterBy|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Subscription.filterBy from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The filter properties to be applied to narrow the subscription topic stream.  When multiple filters are applied, evaluates to true if all the conditions applicable to that resource are met; otherwise it returns false (i.e., logical AND).</t>
+  </si>
+  <si>
+    <t>Element `Subscription.filterBy` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+  </si>
+  <si>
+    <t>Subscription.extension:parameter</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.parameter|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Subscription.parameter from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Channel-dependent information to send as part of the notification (e.g., HTTP Headers).</t>
+  </si>
+  <si>
+    <t>Element `Subscription.parameter` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+  </si>
+  <si>
+    <t>Subscription.extension:heartbeatPeriod</t>
+  </si>
+  <si>
+    <t>heartbeatPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.heartbeatPeriod|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Subscription.heartbeatPeriod from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>If present, a 'heartbeat' notification (keep-alive) is sent via this channel with an interval period equal to this elements integer value in seconds.  If not present, a heartbeat notification is not sent.</t>
+  </si>
+  <si>
+    <t>Element `Subscription.heartbeatPeriod` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+  </si>
+  <si>
+    <t>Subscription.extension:timeout</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.timeout|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Subscription.timeout from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>If present, the maximum amount of time a server will allow before failing a notification attempt.</t>
+  </si>
+  <si>
+    <t>Element `Subscription.timeout` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+  </si>
+  <si>
+    <t>Subscription.extension:content</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.content|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Subscription.content from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>How much of the resource content to deliver in the notification payload. The choices are an empty payload, only the resource id, or the full resource content.</t>
+  </si>
+  <si>
+    <t>Element `Subscription.content` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+  </si>
+  <si>
+    <t>Subscription.extension:maxCount</t>
+  </si>
+  <si>
+    <t>maxCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.maxCount|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Subscription.maxCount from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>If present, the maximum number of events that will be included in a notification bundle. Note that this is not a strict limit on the number of entries in a bundle, as dependent resources can be included.</t>
+  </si>
+  <si>
+    <t>Element `Subscription.maxCount` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+  </si>
+  <si>
+    <t>Subscription.extension:topic</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-canonical|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Subscription.topic from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/SubscriptionTopic in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Subscription.topic` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `Subscription.topic` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+  </si>
+  <si>
+    <t>Subscription.extension:managingEntity</t>
+  </si>
+  <si>
+    <t>managingEntity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Subscription.managingEntity from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/HealthcareService,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Subscription.managingEntity` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Subscription.managingEntity` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+  </si>
+  <si>
+    <t>Subscription.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Subscription.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -448,6 +629,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -498,20 +682,13 @@
     <t>Subscription.status.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Subscription.status.extension:status</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.status|0.0.1-snapshot-3}
@@ -521,8 +698,8 @@
     <t>Cross-version extension for Subscription.status from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Note that the target element context `Subscription.status` is a modifier element, so this extension does not need to be defined as a modifier.
+Element `Subscription.status` is mapped to FHIR R4 element `Subscription.status`.</t>
   </si>
   <si>
     <t>Subscription.status.value</t>
@@ -630,6 +807,9 @@
     <t>Subscription.channel.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -671,11 +851,20 @@
     <t>Subscription.channel.type.extension</t>
   </si>
   <si>
+    <t>Subscription.channel.type.extension:channelType</t>
+  </si>
+  <si>
+    <t>channelType</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.channelType|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Subscription.channelType from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Subscription.channelType` is mapped to FHIR R4 element `Subscription.channel.type`.</t>
   </si>
   <si>
     <t>Subscription.channel.type.value</t>
@@ -1031,7 +1220,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL32"/>
+  <dimension ref="A1:AL41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1040,9 +1229,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.81640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.83203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.0859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1050,7 +1239,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="88.73828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.69921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1956,11 +2145,11 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -1975,17 +2164,15 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>133</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -2022,16 +2209,14 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>134</v>
@@ -2049,7 +2234,7 @@
         <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>78</v>
@@ -2060,43 +2245,43 @@
         <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2144,7 +2329,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2153,13 +2338,13 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>78</v>
@@ -2167,42 +2352,44 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2228,13 +2415,13 @@
         <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>78</v>
@@ -2252,25 +2439,25 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -2278,9 +2465,11 @@
         <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
@@ -2289,7 +2478,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -2301,15 +2490,17 @@
         <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>78</v>
@@ -2358,19 +2549,19 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -2381,21 +2572,23 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -2407,15 +2600,17 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -2452,17 +2647,19 @@
         <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AC13" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2471,7 +2668,7 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>135</v>
@@ -2485,18 +2682,20 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>85</v>
@@ -2511,16 +2710,16 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2570,7 +2769,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -2579,7 +2778,7 @@
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>135</v>
@@ -2593,12 +2792,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>78</v>
       </c>
@@ -2619,15 +2820,17 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -2676,19 +2879,19 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -2699,12 +2902,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>78</v>
       </c>
@@ -2713,7 +2918,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -2722,18 +2927,20 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -2782,7 +2989,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -2791,32 +2998,34 @@
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>85</v>
@@ -2828,19 +3037,19 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2890,41 +3099,43 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>85</v>
@@ -2936,18 +3147,20 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -2996,67 +3209,69 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
@@ -3104,22 +3319,22 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>78</v>
@@ -3127,10 +3342,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3138,7 +3353,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>85</v>
@@ -3147,21 +3362,23 @@
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -3186,13 +3403,13 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -3210,10 +3427,10 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>85</v>
@@ -3228,15 +3445,15 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3244,7 +3461,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>85</v>
@@ -3256,16 +3473,16 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3316,10 +3533,10 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>85</v>
@@ -3328,7 +3545,7 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
@@ -3339,10 +3556,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3350,10 +3567,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -3365,13 +3582,13 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3410,34 +3627,32 @@
         <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>78</v>
@@ -3445,21 +3660,23 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="D23" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -3471,16 +3688,16 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3530,7 +3747,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3539,13 +3756,13 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>78</v>
@@ -3553,46 +3770,42 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
@@ -3640,22 +3853,22 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
@@ -3663,10 +3876,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3674,10 +3887,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -3689,13 +3902,13 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3722,13 +3935,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -3746,13 +3959,13 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
@@ -3764,15 +3977,15 @@
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3792,18 +4005,20 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -3852,7 +4067,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -3864,21 +4079,21 @@
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>78</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3889,7 +4104,7 @@
         <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -3898,16 +4113,16 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3946,43 +4161,45 @@
         <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AC27" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>78</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4002,18 +4219,20 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -4062,19 +4281,19 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -4085,10 +4304,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4108,16 +4327,16 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4168,7 +4387,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4180,7 +4399,7 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
@@ -4191,10 +4410,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4202,7 +4421,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>85</v>
@@ -4217,17 +4436,15 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4276,10 +4493,10 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>85</v>
@@ -4299,10 +4516,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4322,20 +4539,18 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>105</v>
+        <v>207</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -4360,13 +4575,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -4384,7 +4599,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -4396,10 +4611,10 @@
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
@@ -4407,14 +4622,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4430,19 +4645,19 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4492,7 +4707,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -4504,12 +4719,978 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AK32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AK34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AC36" s="2"/>
+      <c r="AD36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Subscription.xlsx
+++ b/StructureDefinition-profile-Subscription.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.3430726-06:00</t>
+    <t>2026-02-17T14:42:26.9208067-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -454,7 +454,7 @@
     <t>A natural language name identifying the subscription.</t>
   </si>
   <si>
-    <t>Element `Subscription.name` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+    <t>Element `Subscription.name` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -477,7 +477,7 @@
     <t>The filter properties to be applied to narrow the subscription topic stream.  When multiple filters are applied, evaluates to true if all the conditions applicable to that resource are met; otherwise it returns false (i.e., logical AND).</t>
   </si>
   <si>
-    <t>Element `Subscription.filterBy` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+    <t>Element `Subscription.filterBy` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Subscription.extension:parameter</t>
@@ -496,7 +496,7 @@
     <t>Channel-dependent information to send as part of the notification (e.g., HTTP Headers).</t>
   </si>
   <si>
-    <t>Element `Subscription.parameter` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+    <t>Element `Subscription.parameter` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Subscription.extension:heartbeatPeriod</t>
@@ -515,7 +515,7 @@
     <t>If present, a 'heartbeat' notification (keep-alive) is sent via this channel with an interval period equal to this elements integer value in seconds.  If not present, a heartbeat notification is not sent.</t>
   </si>
   <si>
-    <t>Element `Subscription.heartbeatPeriod` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+    <t>Element `Subscription.heartbeatPeriod` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Subscription.extension:timeout</t>
@@ -534,7 +534,7 @@
     <t>If present, the maximum amount of time a server will allow before failing a notification attempt.</t>
   </si>
   <si>
-    <t>Element `Subscription.timeout` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+    <t>Element `Subscription.timeout` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Subscription.extension:content</t>
@@ -553,7 +553,7 @@
     <t>How much of the resource content to deliver in the notification payload. The choices are an empty payload, only the resource id, or the full resource content.</t>
   </si>
   <si>
-    <t>Element `Subscription.content` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+    <t>Element `Subscription.content` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Subscription.extension:maxCount</t>
@@ -572,7 +572,7 @@
     <t>If present, the maximum number of events that will be included in a notification bundle. Note that this is not a strict limit on the number of entries in a bundle, as dependent resources can be included.</t>
   </si>
   <si>
-    <t>Element `Subscription.maxCount` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+    <t>Element `Subscription.maxCount` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Subscription.extension:topic</t>
@@ -592,7 +592,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Subscription.topic` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `Subscription.topic` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+Element `Subscription.topic` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Subscription.extension:managingEntity</t>
@@ -612,7 +612,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Subscription.managingEntity` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Subscription.managingEntity` is will have a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+Element `Subscription.managingEntity` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Subscription.modifierExtension</t>
@@ -699,7 +699,7 @@
   </si>
   <si>
     <t>Note that the target element context `Subscription.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `Subscription.status` is mapped to FHIR R4 element `Subscription.status`.</t>
+Element `Subscription.status` has is mapped to FHIR R4 element `Subscription.status`, but has no comparisons.</t>
   </si>
   <si>
     <t>Subscription.status.value</t>
@@ -864,7 +864,7 @@
     <t>Cross-version extension for Subscription.channelType from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Subscription.channelType` is mapped to FHIR R4 element `Subscription.channel.type`.</t>
+    <t>Element `Subscription.channelType` has is mapped to FHIR R4 element `Subscription.channel.type`, but has no comparisons.</t>
   </si>
   <si>
     <t>Subscription.channel.type.value</t>

--- a/StructureDefinition-profile-Subscription.xlsx
+++ b/StructureDefinition-profile-Subscription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="293">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.9208067-06:00</t>
+    <t>2026-02-20T11:59:20.9541183-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Subscription|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Subscription</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -438,36 +438,55 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Subscription.extension:name</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.name|0.0.1-snapshot-3}
+    <t>Subscription.extension:identifier</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.identifier}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Subscription.name from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A natural language name identifying the subscription.</t>
-  </si>
-  <si>
-    <t>Element `Subscription.name` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+    <t>Cross-version extension for Subscription.identifier from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A formal identifier that is used to identify this code system when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
+  </si>
+  <si>
+    <t>Element `Subscription.identifier` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>Subscription.extension:name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.name}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Subscription.name from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A natural language name identifying the subscription.</t>
+  </si>
+  <si>
+    <t>Element `Subscription.name` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
+  </si>
+  <si>
     <t>Subscription.extension:filterBy</t>
   </si>
   <si>
     <t>filterBy</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.filterBy|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.filterBy}
 </t>
   </si>
   <si>
@@ -486,7 +505,7 @@
     <t>parameter</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.parameter|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.parameter}
 </t>
   </si>
   <si>
@@ -505,7 +524,7 @@
     <t>heartbeatPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.heartbeatPeriod|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.heartbeatPeriod}
 </t>
   </si>
   <si>
@@ -524,7 +543,7 @@
     <t>timeout</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.timeout|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.timeout}
 </t>
   </si>
   <si>
@@ -543,7 +562,7 @@
     <t>content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.content|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.content}
 </t>
   </si>
   <si>
@@ -562,7 +581,7 @@
     <t>maxCount</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.maxCount|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.maxCount}
 </t>
   </si>
   <si>
@@ -581,7 +600,7 @@
     <t>topic</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-canonical|5.2.0}
+    <t xml:space="preserve">Extension {alternate-canonical}
 </t>
   </si>
   <si>
@@ -601,7 +620,7 @@
     <t>managingEntity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -691,7 +710,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.status|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.status}
 </t>
   </si>
   <si>
@@ -857,7 +876,7 @@
     <t>channelType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.channelType|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.channelType}
 </t>
   </si>
   <si>
@@ -1220,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL41"/>
+  <dimension ref="A1:AL42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1239,7 +1258,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.69921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.28515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2258,7 +2277,7 @@
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
@@ -2368,7 +2387,7 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
@@ -2588,7 +2607,7 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -3025,7 +3044,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>85</v>
@@ -3108,7 +3127,7 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>135</v>
@@ -3135,7 +3154,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>85</v>
@@ -3235,43 +3254,43 @@
         <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="D19" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>129</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O19" t="s" s="2">
         <v>196</v>
       </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
@@ -3319,7 +3338,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3334,7 +3353,7 @@
         <v>135</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>78</v>
@@ -3342,21 +3361,21 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -3365,10 +3384,10 @@
         <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>199</v>
@@ -3379,7 +3398,9 @@
       <c r="N20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="O20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
       </c>
@@ -3403,57 +3424,57 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="AG20" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>205</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3461,7 +3482,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>85</v>
@@ -3470,21 +3491,23 @@
         <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -3509,13 +3532,13 @@
         <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>78</v>
@@ -3533,10 +3556,10 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>85</v>
@@ -3545,21 +3568,21 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3567,10 +3590,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -3582,13 +3605,13 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3627,29 +3650,31 @@
         <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC22" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
@@ -3660,14 +3685,12 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>78</v>
       </c>
@@ -3676,7 +3699,7 @@
         <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -3688,17 +3711,15 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -3735,19 +3756,17 @@
         <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3756,7 +3775,7 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>135</v>
@@ -3770,18 +3789,20 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>85</v>
@@ -3796,15 +3817,17 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -3853,19 +3876,19 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
@@ -3876,10 +3899,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3890,7 +3913,7 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -3899,16 +3922,16 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3959,33 +3982,33 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3996,7 +4019,7 @@
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4008,17 +4031,15 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N26" t="s" s="2">
         <v>230</v>
       </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4067,13 +4088,13 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -4101,7 +4122,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>85</v>
@@ -4116,15 +4137,17 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4176,7 +4199,7 @@
         <v>232</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>85</v>
@@ -4191,15 +4214,15 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4222,17 +4245,15 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -4281,7 +4302,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>85</v>
@@ -4299,15 +4320,15 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4315,7 +4336,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>85</v>
@@ -4330,15 +4351,17 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4387,10 +4410,10 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>85</v>
@@ -4410,10 +4433,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4421,7 +4444,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>85</v>
@@ -4436,13 +4459,13 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4493,10 +4516,10 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>85</v>
@@ -4516,10 +4539,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4527,7 +4550,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>85</v>
@@ -4539,16 +4562,16 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4599,10 +4622,10 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>85</v>
@@ -4611,10 +4634,10 @@
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>250</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
@@ -4622,21 +4645,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -4648,17 +4671,15 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -4707,22 +4728,22 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>78</v>
@@ -4730,14 +4751,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4750,26 +4771,24 @@
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
@@ -4817,7 +4836,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -4832,7 +4851,7 @@
         <v>135</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>83</v>
+        <v>256</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>78</v>
@@ -4840,42 +4859,46 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -4899,13 +4922,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -4923,22 +4946,22 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>78</v>
@@ -4946,10 +4969,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4957,7 +4980,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>85</v>
@@ -4969,16 +4992,16 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5005,13 +5028,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5029,10 +5052,10 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>85</v>
@@ -5041,7 +5064,7 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -5052,10 +5075,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5063,10 +5086,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5078,13 +5101,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5123,29 +5146,31 @@
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -5156,14 +5181,12 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5172,7 +5195,7 @@
         <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5184,17 +5207,15 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>269</v>
+        <v>130</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5231,19 +5252,17 @@
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5252,7 +5271,7 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>135</v>
@@ -5266,18 +5285,20 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>85</v>
@@ -5292,15 +5313,17 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>219</v>
+        <v>275</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -5349,19 +5372,19 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -5372,10 +5395,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5395,20 +5418,18 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -5457,7 +5478,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -5469,7 +5490,7 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -5480,10 +5501,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5506,16 +5527,16 @@
         <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>105</v>
+        <v>279</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5541,13 +5562,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -5565,7 +5586,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -5602,7 +5623,7 @@
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -5614,7 +5635,7 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>284</v>
@@ -5649,13 +5670,13 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -5679,7 +5700,7 @@
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
@@ -5691,6 +5712,114 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Subscription.xlsx
+++ b/StructureDefinition-profile-Subscription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="281">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9541183-06:00</t>
+    <t>2026-02-21T13:36:54.3597067-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Subscription</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Subscription|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -444,7 +444,7 @@
     <t>identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.identifier}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.identifier|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -467,7 +467,7 @@
     <t>name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.name}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.name|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -486,7 +486,7 @@
     <t>filterBy</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.filterBy}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.filterBy|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -505,7 +505,7 @@
     <t>parameter</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.parameter}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.parameter|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -524,7 +524,7 @@
     <t>heartbeatPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.heartbeatPeriod}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.heartbeatPeriod|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -543,7 +543,7 @@
     <t>timeout</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.timeout}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.timeout|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -562,7 +562,7 @@
     <t>content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.content}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.content|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -581,7 +581,7 @@
     <t>maxCount</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.maxCount}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.maxCount|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -592,46 +592,6 @@
   </si>
   <si>
     <t>Element `Subscription.maxCount` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
-  </si>
-  <si>
-    <t>Subscription.extension:topic</t>
-  </si>
-  <si>
-    <t>topic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-canonical}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Subscription.topic from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/SubscriptionTopic in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Subscription.topic` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `Subscription.topic` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
-  </si>
-  <si>
-    <t>Subscription.extension:managingEntity</t>
-  </si>
-  <si>
-    <t>managingEntity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Subscription.managingEntity from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/HealthcareService,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Subscription.managingEntity` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Subscription.managingEntity` has a context of Subscription based on following the parent source element upwards and mapping to `Subscription`.</t>
   </si>
   <si>
     <t>Subscription.modifierExtension</t>
@@ -710,7 +670,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.status}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.status|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -718,7 +678,7 @@
   </si>
   <si>
     <t>Note that the target element context `Subscription.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `Subscription.status` has is mapped to FHIR R4 element `Subscription.status`, but has no comparisons.</t>
+Element `Subscription.status` is mapped to FHIR R4 element `Subscription.status` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Subscription.status.value</t>
@@ -876,14 +836,14 @@
     <t>channelType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.channelType}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Subscription.channelType|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Subscription.channelType from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Subscription.channelType` has is mapped to FHIR R4 element `Subscription.channel.type`, but has no comparisons.</t>
+    <t>Element `Subscription.channelType` is mapped to FHIR R4 element `Subscription.channel.type` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Subscription.channel.type.value</t>
@@ -1239,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL42"/>
+  <dimension ref="A1:AL40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1258,7 +1218,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.28515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.69921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2168,7 +2128,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -3144,43 +3104,43 @@
         <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3228,7 +3188,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3243,7 +3203,7 @@
         <v>135</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>78</v>
@@ -3251,20 +3211,18 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C19" t="s" s="2">
         <v>192</v>
       </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>85</v>
@@ -3273,22 +3231,22 @@
         <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3314,13 +3272,13 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
@@ -3338,69 +3296,65 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>78</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
       </c>
@@ -3448,22 +3402,22 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>78</v>
@@ -3471,10 +3425,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3485,29 +3439,27 @@
         <v>85</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -3532,65 +3484,65 @@
         <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>85</v>
@@ -3605,15 +3557,17 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -3662,19 +3616,19 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
@@ -3685,10 +3639,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3696,10 +3650,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -3711,13 +3665,13 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3756,29 +3710,31 @@
         <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
@@ -3789,23 +3745,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -3814,20 +3768,18 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -3876,7 +3828,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3885,24 +3837,24 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>78</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3922,18 +3874,20 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -3982,7 +3936,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3994,21 +3948,21 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4016,10 +3970,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4031,13 +3985,13 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4088,13 +4042,13 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -4106,15 +4060,15 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4122,7 +4076,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>85</v>
@@ -4137,16 +4091,16 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4196,10 +4150,10 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>85</v>
@@ -4214,15 +4168,15 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4230,7 +4184,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>85</v>
@@ -4245,13 +4199,13 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4302,10 +4256,10 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>85</v>
@@ -4320,15 +4274,15 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>241</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4351,17 +4305,15 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4410,7 +4362,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>85</v>
@@ -4433,10 +4385,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4456,16 +4408,16 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4516,7 +4468,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4528,10 +4480,10 @@
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>78</v>
@@ -4539,21 +4491,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -4562,18 +4514,20 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -4622,22 +4576,22 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
@@ -4645,42 +4599,46 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
       </c>
@@ -4728,22 +4686,22 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>256</v>
+        <v>83</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>78</v>
@@ -4751,21 +4709,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -4774,20 +4732,18 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -4812,13 +4768,13 @@
         <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
@@ -4836,22 +4792,22 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>78</v>
@@ -4859,46 +4815,42 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>262</v>
+        <v>202</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -4946,22 +4898,22 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>78</v>
@@ -4969,10 +4921,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4983,7 +4935,7 @@
         <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -4992,16 +4944,16 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>267</v>
+        <v>131</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5028,43 +4980,41 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -5075,18 +5025,20 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>85</v>
@@ -5101,15 +5053,17 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5158,19 +5112,19 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -5181,10 +5135,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5192,10 +5146,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5207,13 +5161,13 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5252,29 +5206,31 @@
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC37" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -5285,20 +5241,18 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>85</v>
@@ -5310,19 +5264,19 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5372,19 +5326,19 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -5395,10 +5349,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5418,18 +5372,20 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -5454,13 +5410,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -5478,7 +5434,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -5490,7 +5446,7 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -5501,10 +5457,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5515,7 +5471,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -5527,16 +5483,16 @@
         <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5586,13 +5542,13 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
@@ -5604,222 +5560,6 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O42" s="2"/>
-      <c r="P42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL42" t="s" s="2">
         <v>78</v>
       </c>
     </row>
